--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\GitHub\QE_Automated_Testing_Framework\test\testprotocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D761405-4A14-43EC-ABA5-9BBEDDE9FCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDBBB16-D010-4356-9231-8668891BD142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
     <t>testcase24_oracle_bigquery_counting</t>
   </si>
   <si>
-    <t>DBTablesDemo</t>
+    <t>DemoProtocol</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDBBB16-D010-4356-9231-8668891BD142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C67161-50BF-4CD4-A079-F694426A17CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>Sno.</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>DemoProtocol</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>execute</t>
   </si>
 </sst>
 </file>
@@ -231,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -245,6 +254,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -529,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,10 +612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,9 +623,10 @@
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -619,8 +636,11 @@
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -631,8 +651,11 @@
         <f t="shared" ref="C2:C26" si="0">_xlfn.CONCAT("/app/test/testcases/",B2,".xlsx")</f>
         <v>/app/test/testcases/testcase1_parquet_parquet_mismatch.xlsx</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -643,8 +666,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase2_parquet_parquet_match.xlsx</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -655,8 +681,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase3_csv_csv_match.xlsx</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -667,8 +696,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase4_csv_csv_mismatch.xlsx</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -679,8 +711,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase5_csv_parquet_match.xlsx</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -691,8 +726,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase6_csv_parquet_mismatch.xlsx</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -703,8 +741,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase7_json_json_mismatch.xlsx</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -715,8 +756,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase8_json_json_match.xlsx</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -727,8 +771,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase9_json_parquet_match.xlsx</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -739,8 +786,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase10_json_parquet_mismatch.xlsx</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -751,8 +801,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase11_parquet_parquet_match_manual.xlsx</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -763,8 +816,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase12_parquet_parquet_mismatch_manual.xlsx</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -775,8 +831,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase13_csv_parquet_match_manuel.xlsx</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -787,8 +846,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase14_csv_parquet_mismatch_manual.xlsx</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -799,8 +861,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase15_parquet_parquet_match_likeobject.xlsx</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -811,8 +876,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase16_parquet_parquet_mismatch_likeobject.xlsx</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -823,8 +891,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase17_dbtable_dbtable_match_likeobject.xlsx</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -835,8 +906,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase18_parquet_dbtable_match_likeobject.xlsx</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -847,8 +921,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase19_oracle_mysql_match_manual.xlsx</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -859,8 +936,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase20_oracle_bigquery_match_manual.xlsx</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -871,8 +951,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase21_mysql_bigquery_mismatch.xlsx</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -883,8 +966,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase22_bigquery_mysql_match.xlsx</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -895,8 +981,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase23_parquet_snowflake_mismatch.xlsx</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -907,8 +996,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase24_oracle_bigquery_counting.xlsx</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -919,8 +1011,11 @@
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase25_oracle_oracle_etljob.xlsx</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -931,78 +1026,88 @@
         <f>_xlfn.CONCAT("/app/test/testcases/",B27,".xlsx")</f>
         <v>/app/test/testcases/testcase26_bigquery_bigquery_etljob.xlsx</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="D39" s="6"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D27" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C67161-50BF-4CD4-A079-F694426A17CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400AF054-24AD-412F-946F-BDBF096555C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,7 +922,7 @@
         <v>/app/test/testcases/testcase19_oracle_mysql_match_manual.xlsx</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -937,7 +937,7 @@
         <v>/app/test/testcases/testcase20_oracle_bigquery_match_manual.xlsx</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -952,7 +952,7 @@
         <v>/app/test/testcases/testcase21_mysql_bigquery_mismatch.xlsx</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -967,7 +967,7 @@
         <v>/app/test/testcases/testcase22_bigquery_mysql_match.xlsx</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400AF054-24AD-412F-946F-BDBF096555C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4712541-F4CE-45E9-992A-1C95582C386A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>Sno.</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>execute</t>
+  </si>
+  <si>
+    <t>testcase27_csv_csv_bigdata_match</t>
   </si>
 </sst>
 </file>
@@ -614,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,10 +1034,19 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f>_xlfn.CONCAT("/app/test/testcases/",B28,".xlsx")</f>
+        <v>/app/test/testcases/testcase27_csv_csv_bigdata_match.xlsx</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -1104,7 +1116,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D27" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D28" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4712541-F4CE-45E9-992A-1C95582C386A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABACDC7-FC34-4E7F-90BC-F68208FC937B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="1" r:id="rId1"/>
@@ -153,9 +153,6 @@
     <t>testcase26_bigquery_bigquery_etljob</t>
   </si>
   <si>
-    <t>testcase24_oracle_bigquery_counting</t>
-  </si>
-  <si>
     <t>DemoProtocol</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>testcase27_csv_csv_bigdata_match</t>
+  </si>
+  <si>
+    <t>testcase24_postgres_bigquery_counting</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
         <v>/app/test/testcases/testcase1_parquet_parquet_mismatch.xlsx</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>/app/test/testcases/testcase2_parquet_parquet_match.xlsx</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -685,7 +685,7 @@
         <v>/app/test/testcases/testcase3_csv_csv_match.xlsx</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
         <v>/app/test/testcases/testcase4_csv_csv_mismatch.xlsx</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>/app/test/testcases/testcase5_csv_parquet_match.xlsx</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
         <v>/app/test/testcases/testcase6_csv_parquet_mismatch.xlsx</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>/app/test/testcases/testcase7_json_json_mismatch.xlsx</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
         <v>/app/test/testcases/testcase8_json_json_match.xlsx</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -790,7 +790,7 @@
         <v>/app/test/testcases/testcase10_json_parquet_mismatch.xlsx</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
         <v>/app/test/testcases/testcase11_parquet_parquet_match_manual.xlsx</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
         <v>/app/test/testcases/testcase12_parquet_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,7 +835,7 @@
         <v>/app/test/testcases/testcase13_csv_parquet_match_manuel.xlsx</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
         <v>/app/test/testcases/testcase14_csv_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -865,7 +865,7 @@
         <v>/app/test/testcases/testcase15_parquet_parquet_match_likeobject.xlsx</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
         <v>/app/test/testcases/testcase16_parquet_parquet_mismatch_likeobject.xlsx</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>/app/test/testcases/testcase17_dbtable_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>/app/test/testcases/testcase18_parquet_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>/app/test/testcases/testcase19_oracle_mysql_match_manual.xlsx</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -940,7 +940,7 @@
         <v>/app/test/testcases/testcase20_oracle_bigquery_match_manual.xlsx</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -955,7 +955,7 @@
         <v>/app/test/testcases/testcase21_mysql_bigquery_mismatch.xlsx</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
         <v>/app/test/testcases/testcase22_bigquery_mysql_match.xlsx</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -985,7 +985,7 @@
         <v>/app/test/testcases/testcase23_parquet_snowflake_mismatch.xlsx</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -993,14 +993,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase24_oracle_bigquery_counting.xlsx</v>
+        <v>/app/test/testcases/testcase24_postgres_bigquery_counting.xlsx</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
         <v>/app/test/testcases/testcase25_oracle_oracle_etljob.xlsx</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
         <v>/app/test/testcases/testcase26_bigquery_bigquery_etljob.xlsx</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,14 +1038,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>_xlfn.CONCAT("/app/test/testcases/",B28,".xlsx")</f>
         <v>/app/test/testcases/testcase27_csv_csv_bigdata_match.xlsx</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABACDC7-FC34-4E7F-90BC-F68208FC937B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82A9C26-662F-4809-BB36-ED2807F2C6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,9 +132,6 @@
     <t>/app/test/results/</t>
   </si>
   <si>
-    <t>testcase21_mysql_bigquery_mismatch</t>
-  </si>
-  <si>
     <t>testcase22_bigquery_mysql_match</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>testcase25_oracle_oracle_etljob</t>
   </si>
   <si>
-    <t>testcase26_bigquery_bigquery_etljob</t>
-  </si>
-  <si>
     <t>DemoProtocol</t>
   </si>
   <si>
@@ -169,6 +163,12 @@
   </si>
   <si>
     <t>testcase24_postgres_bigquery_counting</t>
+  </si>
+  <si>
+    <t>testcase21_mysql_csv_match</t>
+  </si>
+  <si>
+    <t>testcase26_names_fullname_etljob</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
         <v>/app/test/testcases/testcase1_parquet_parquet_mismatch.xlsx</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>/app/test/testcases/testcase2_parquet_parquet_match.xlsx</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -685,7 +685,7 @@
         <v>/app/test/testcases/testcase3_csv_csv_match.xlsx</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
         <v>/app/test/testcases/testcase4_csv_csv_mismatch.xlsx</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>/app/test/testcases/testcase5_csv_parquet_match.xlsx</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
         <v>/app/test/testcases/testcase6_csv_parquet_mismatch.xlsx</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>/app/test/testcases/testcase7_json_json_mismatch.xlsx</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
         <v>/app/test/testcases/testcase8_json_json_match.xlsx</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <v>/app/test/testcases/testcase9_json_parquet_match.xlsx</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -790,7 +790,7 @@
         <v>/app/test/testcases/testcase10_json_parquet_mismatch.xlsx</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
         <v>/app/test/testcases/testcase11_parquet_parquet_match_manual.xlsx</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
         <v>/app/test/testcases/testcase12_parquet_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,7 +835,7 @@
         <v>/app/test/testcases/testcase13_csv_parquet_match_manuel.xlsx</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
         <v>/app/test/testcases/testcase14_csv_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -865,7 +865,7 @@
         <v>/app/test/testcases/testcase15_parquet_parquet_match_likeobject.xlsx</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
         <v>/app/test/testcases/testcase16_parquet_parquet_mismatch_likeobject.xlsx</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>/app/test/testcases/testcase17_dbtable_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>/app/test/testcases/testcase18_parquet_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -918,14 +918,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase19_oracle_mysql_match_manual.xlsx</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -933,14 +933,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase20_oracle_bigquery_match_manual.xlsx</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -948,14 +948,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase21_mysql_bigquery_mismatch.xlsx</v>
+        <v>/app/test/testcases/testcase21_mysql_csv_match.xlsx</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,14 +963,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase22_bigquery_mysql_match.xlsx</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -978,14 +978,14 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase23_parquet_snowflake_mismatch.xlsx</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -993,14 +993,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase24_postgres_bigquery_counting.xlsx</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,14 +1008,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase25_oracle_oracle_etljob.xlsx</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,14 +1023,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C27" s="4" t="str">
         <f>_xlfn.CONCAT("/app/test/testcases/",B27,".xlsx")</f>
-        <v>/app/test/testcases/testcase26_bigquery_bigquery_etljob.xlsx</v>
+        <v>/app/test/testcases/testcase26_names_fullname_etljob.xlsx</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,14 +1038,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>_xlfn.CONCAT("/app/test/testcases/",B28,".xlsx")</f>
         <v>/app/test/testcases/testcase27_csv_csv_bigdata_match.xlsx</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1123,7 +1123,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C27" unlockedFormula="1"/>
+    <ignoredError sqref="C27 C22" unlockedFormula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82A9C26-662F-4809-BB36-ED2807F2C6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A6152C-6D1E-4852-9FC2-6E502BC7BB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,13 +162,13 @@
     <t>testcase27_csv_csv_bigdata_match</t>
   </si>
   <si>
-    <t>testcase24_postgres_bigquery_counting</t>
-  </si>
-  <si>
     <t>testcase21_mysql_csv_match</t>
   </si>
   <si>
     <t>testcase26_names_fullname_etljob</t>
+  </si>
+  <si>
+    <t>testcase24_postgres_csv_counting</t>
   </si>
 </sst>
 </file>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +775,7 @@
         <v>/app/test/testcases/testcase9_json_parquet_match.xlsx</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>/app/test/testcases/testcase19_oracle_mysql_match_manual.xlsx</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -940,7 +940,7 @@
         <v>/app/test/testcases/testcase20_oracle_bigquery_match_manual.xlsx</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -948,7 +948,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -993,11 +993,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase24_postgres_bigquery_counting.xlsx</v>
+        <v>/app/test/testcases/testcase24_postgres_csv_counting.xlsx</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>37</v>
@@ -1023,7 +1023,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="4" t="str">
         <f>_xlfn.CONCAT("/app/test/testcases/",B27,".xlsx")</f>

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A6152C-6D1E-4852-9FC2-6E502BC7BB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BBEC79-7866-4667-8FBB-E48D042B5992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <t>testcase25_oracle_oracle_etljob</t>
   </si>
   <si>
-    <t>DemoProtocol</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>testcase24_postgres_csv_counting</t>
+  </si>
+  <si>
+    <t>DBTablesDemo</t>
   </si>
 </sst>
 </file>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -617,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
         <v>/app/test/testcases/testcase1_parquet_parquet_mismatch.xlsx</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>/app/test/testcases/testcase2_parquet_parquet_match.xlsx</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -685,7 +685,7 @@
         <v>/app/test/testcases/testcase3_csv_csv_match.xlsx</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
         <v>/app/test/testcases/testcase4_csv_csv_mismatch.xlsx</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>/app/test/testcases/testcase5_csv_parquet_match.xlsx</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
         <v>/app/test/testcases/testcase6_csv_parquet_mismatch.xlsx</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>/app/test/testcases/testcase7_json_json_mismatch.xlsx</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
         <v>/app/test/testcases/testcase8_json_json_match.xlsx</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <v>/app/test/testcases/testcase9_json_parquet_match.xlsx</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -790,7 +790,7 @@
         <v>/app/test/testcases/testcase10_json_parquet_mismatch.xlsx</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
         <v>/app/test/testcases/testcase11_parquet_parquet_match_manual.xlsx</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
         <v>/app/test/testcases/testcase12_parquet_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,7 +835,7 @@
         <v>/app/test/testcases/testcase13_csv_parquet_match_manuel.xlsx</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
         <v>/app/test/testcases/testcase14_csv_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -865,7 +865,7 @@
         <v>/app/test/testcases/testcase15_parquet_parquet_match_likeobject.xlsx</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
         <v>/app/test/testcases/testcase16_parquet_parquet_mismatch_likeobject.xlsx</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>/app/test/testcases/testcase17_dbtable_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>/app/test/testcases/testcase18_parquet_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>/app/test/testcases/testcase19_oracle_mysql_match_manual.xlsx</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -940,7 +940,7 @@
         <v>/app/test/testcases/testcase20_oracle_bigquery_match_manual.xlsx</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -948,14 +948,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase21_mysql_csv_match.xlsx</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
         <v>/app/test/testcases/testcase22_bigquery_mysql_match.xlsx</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -985,7 +985,7 @@
         <v>/app/test/testcases/testcase23_parquet_snowflake_mismatch.xlsx</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -993,14 +993,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase24_postgres_csv_counting.xlsx</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
         <v>/app/test/testcases/testcase25_oracle_oracle_etljob.xlsx</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,14 +1023,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="4" t="str">
         <f>_xlfn.CONCAT("/app/test/testcases/",B27,".xlsx")</f>
         <v>/app/test/testcases/testcase26_names_fullname_etljob.xlsx</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,14 +1038,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>_xlfn.CONCAT("/app/test/testcases/",B28,".xlsx")</f>
         <v>/app/test/testcases/testcase27_csv_csv_bigdata_match.xlsx</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BBEC79-7866-4667-8FBB-E48D042B5992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E59F27-5D1F-4A0C-A119-9B54AFAA1E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="1" r:id="rId1"/>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,7 +910,7 @@
         <v>/app/test/testcases/testcase18_parquet_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -940,7 +940,7 @@
         <v>/app/test/testcases/testcase20_oracle_bigquery_match_manual.xlsx</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E59F27-5D1F-4A0C-A119-9B54AFAA1E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD895E85-0639-4543-86C2-21878A49FA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>Sno.</t>
   </si>
@@ -169,13 +169,22 @@
   </si>
   <si>
     <t>DBTablesDemo</t>
+  </si>
+  <si>
+    <t>testcase28_csv_sample1_csv_sample2</t>
+  </si>
+  <si>
+    <t>testcase29_csv_sample2_csv_sample3</t>
+  </si>
+  <si>
+    <t>testcase30_csv_sample1_csv_sample3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +196,12 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -549,7 +564,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,22 +1064,49 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f>_xlfn.CONCAT("/app/test/testcases/",B29,".xlsx")</f>
+        <v>/app/test/testcases/testcase28_csv_sample1_csv_sample2.xlsx</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f t="shared" ref="C30:C31" si="1">_xlfn.CONCAT("/app/test/testcases/",B30,".xlsx")</f>
+        <v>/app/test/testcases/testcase29_csv_sample2_csv_sample3.xlsx</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>/app/test/testcases/testcase30_csv_sample1_csv_sample3.xlsx</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
@@ -1115,8 +1157,9 @@
       <c r="D39" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D28" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D31" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD895E85-0639-4543-86C2-21878A49FA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395B01F3-78F0-46D7-A79A-A7174940E991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>Sno.</t>
   </si>
@@ -171,13 +171,7 @@
     <t>DBTablesDemo</t>
   </si>
   <si>
-    <t>testcase28_csv_sample1_csv_sample2</t>
-  </si>
-  <si>
-    <t>testcase29_csv_sample2_csv_sample3</t>
-  </si>
-  <si>
-    <t>testcase30_csv_sample1_csv_sample3</t>
+    <t>testcase28_manual_sql_etltesting</t>
   </si>
 </sst>
 </file>
@@ -630,10 +624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,41 +1066,23 @@
       </c>
       <c r="C29" s="4" t="str">
         <f>_xlfn.CONCAT("/app/test/testcases/",B29,".xlsx")</f>
-        <v>/app/test/testcases/testcase28_csv_sample1_csv_sample2.xlsx</v>
+        <v>/app/test/testcases/testcase28_manual_sql_etltesting.xlsx</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="4" t="str">
-        <f t="shared" ref="C30:C31" si="1">_xlfn.CONCAT("/app/test/testcases/",B30,".xlsx")</f>
-        <v>/app/test/testcases/testcase29_csv_sample2_csv_sample3.xlsx</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>/app/test/testcases/testcase30_csv_sample1_csv_sample3.xlsx</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
@@ -1144,22 +1120,10 @@
       <c r="C37" s="4"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="6"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D31" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D29" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395B01F3-78F0-46D7-A79A-A7174940E991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB71674-F617-4EAF-8500-E383917248EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Sno.</t>
   </si>
@@ -171,7 +171,10 @@
     <t>DBTablesDemo</t>
   </si>
   <si>
-    <t>testcase28_manual_sql_etltesting</t>
+    <t>testcase28_manual_sql_notifications</t>
+  </si>
+  <si>
+    <t>testcase29_manual_sql_fullname</t>
   </si>
 </sst>
 </file>
@@ -626,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +922,7 @@
         <v>/app/test/testcases/testcase18_parquet_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -934,7 +937,7 @@
         <v>/app/test/testcases/testcase19_oracle_mysql_match_manual.xlsx</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -964,7 +967,7 @@
         <v>/app/test/testcases/testcase21_mysql_csv_match.xlsx</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1066,17 +1069,26 @@
       </c>
       <c r="C29" s="4" t="str">
         <f>_xlfn.CONCAT("/app/test/testcases/",B29,".xlsx")</f>
-        <v>/app/test/testcases/testcase28_manual_sql_etltesting.xlsx</v>
+        <v>/app/test/testcases/testcase28_manual_sql_notifications.xlsx</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f>_xlfn.CONCAT("/app/test/testcases/",B30,".xlsx")</f>
+        <v>/app/test/testcases/testcase29_manual_sql_fullname.xlsx</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
@@ -1123,7 +1135,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D29" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB71674-F617-4EAF-8500-E383917248EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB5EA71-98F5-407D-A0A0-9CF32923AB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,7 +922,7 @@
         <v>/app/test/testcases/testcase18_parquet_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -937,7 +937,7 @@
         <v>/app/test/testcases/testcase19_oracle_mysql_match_manual.xlsx</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -967,7 +967,7 @@
         <v>/app/test/testcases/testcase21_mysql_csv_match.xlsx</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>/app/test/testcases/testcase28_manual_sql_notifications.xlsx</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
         <v>/app/test/testcases/testcase29_manual_sql_fullname.xlsx</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB5EA71-98F5-407D-A0A0-9CF32923AB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA62AC9B-C0D4-420E-9072-0502E04DC928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>Sno.</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>testcase29_manual_sql_fullname</t>
+  </si>
+  <si>
+    <t>testcase30_csv_csv_3mill50cols_content</t>
   </si>
 </sst>
 </file>
@@ -1091,10 +1094,19 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <f>_xlfn.CONCAT("/app/test/testcases/",B31,".xlsx")</f>
+        <v>/app/test/testcases/testcase30_csv_csv_3mill50cols_content.xlsx</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA62AC9B-C0D4-420E-9072-0502E04DC928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5908531D-1787-4E01-9DC5-252B216AA538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="1" r:id="rId1"/>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +925,7 @@
         <v>/app/test/testcases/testcase18_parquet_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -940,7 +940,7 @@
         <v>/app/test/testcases/testcase19_oracle_mysql_match_manual.xlsx</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
         <v>/app/test/testcases/testcase21_mysql_csv_match.xlsx</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
         <v>/app/test/testcases/testcase28_manual_sql_notifications.xlsx</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1090,7 +1090,7 @@
         <v>/app/test/testcases/testcase29_manual_sql_fullname.xlsx</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5908531D-1787-4E01-9DC5-252B216AA538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A666F797-1014-4E18-AB61-6B74550A7DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,7 +633,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +670,7 @@
         <v>/app/test/testcases/testcase1_parquet_parquet_mismatch.xlsx</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
         <v>/app/test/testcases/testcase3_csv_csv_match.xlsx</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
         <v>/app/test/testcases/testcase10_json_parquet_mismatch.xlsx</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,7 +835,7 @@
         <v>/app/test/testcases/testcase12_parquet_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -865,7 +865,7 @@
         <v>/app/test/testcases/testcase14_csv_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
         <v>/app/test/testcases/testcase15_parquet_parquet_match_likeobject.xlsx</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
         <v>/app/test/testcases/testcase28_manual_sql_notifications.xlsx</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1090,7 +1090,7 @@
         <v>/app/test/testcases/testcase29_manual_sql_fullname.xlsx</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A666F797-1014-4E18-AB61-6B74550A7DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4373D8-77E5-48EA-80ED-7A79CBC0F40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +670,7 @@
         <v>/app/test/testcases/testcase1_parquet_parquet_mismatch.xlsx</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
         <v>/app/test/testcases/testcase3_csv_csv_match.xlsx</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
         <v>/app/test/testcases/testcase10_json_parquet_mismatch.xlsx</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
         <v>/app/test/testcases/testcase13_csv_parquet_match_manuel.xlsx</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>/app/test/testcases/testcase16_parquet_parquet_mismatch_likeobject.xlsx</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4373D8-77E5-48EA-80ED-7A79CBC0F40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB22933-F33F-44AF-A8B2-2CC2DB7E4971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,7 +790,7 @@
         <v>/app/test/testcases/testcase9_json_parquet_match.xlsx</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
         <v>/app/test/testcases/testcase13_csv_parquet_match_manuel.xlsx</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>/app/test/testcases/testcase16_parquet_parquet_mismatch_likeobject.xlsx</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
         <v>/app/test/testcases/testcase28_manual_sql_notifications.xlsx</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1090,7 +1090,7 @@
         <v>/app/test/testcases/testcase29_manual_sql_fullname.xlsx</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB22933-F33F-44AF-A8B2-2CC2DB7E4971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7446F83E-1598-490A-B6EA-43F4A494B74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,6 @@
     <t>testcase24_postgres_csv_counting</t>
   </si>
   <si>
-    <t>DBTablesDemo</t>
-  </si>
-  <si>
     <t>testcase28_manual_sql_notifications</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>testcase30_csv_csv_3mill50cols_content</t>
+  </si>
+  <si>
+    <t>DATFDemo</t>
   </si>
 </sst>
 </file>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +580,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1068,7 +1068,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>_xlfn.CONCAT("/app/test/testcases/",B29,".xlsx")</f>
@@ -1083,7 +1083,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="4" t="str">
         <f>_xlfn.CONCAT("/app/test/testcases/",B30,".xlsx")</f>
@@ -1098,7 +1098,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="4" t="str">
         <f>_xlfn.CONCAT("/app/test/testcases/",B31,".xlsx")</f>

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7446F83E-1598-490A-B6EA-43F4A494B74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D928F2E-C7E5-4C52-9032-21A6B7D16C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>protocol_name</t>
   </si>
   <si>
-    <t>s3</t>
-  </si>
-  <si>
     <t>test_case_name</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>testcase26_names_fullname_etljob</t>
   </si>
   <si>
-    <t>testcase24_postgres_csv_counting</t>
-  </si>
-  <si>
     <t>testcase28_manual_sql_notifications</t>
   </si>
   <si>
@@ -178,6 +172,12 @@
   </si>
   <si>
     <t>DATFDemo</t>
+  </si>
+  <si>
+    <t>testcase24_snowflake_snowflake_etljob</t>
+  </si>
+  <si>
+    <t>multiple</t>
   </si>
 </sst>
 </file>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +580,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,31 +596,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,13 +649,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -663,14 +663,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="str">
         <f t="shared" ref="C2:C26" si="0">_xlfn.CONCAT("/app/test/testcases/",B2,".xlsx")</f>
         <v>/app/test/testcases/testcase1_parquet_parquet_mismatch.xlsx</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,14 +678,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase2_parquet_parquet_match.xlsx</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -693,14 +693,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase3_csv_csv_match.xlsx</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -708,14 +708,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase4_csv_csv_mismatch.xlsx</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,14 +723,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase5_csv_parquet_match.xlsx</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -738,14 +738,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase6_csv_parquet_mismatch.xlsx</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,14 +753,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase7_json_json_mismatch.xlsx</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,14 +768,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase8_json_json_match.xlsx</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -783,14 +783,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase9_json_parquet_match.xlsx</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -798,14 +798,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase10_json_parquet_mismatch.xlsx</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,14 +813,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase11_parquet_parquet_match_manual.xlsx</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,14 +828,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase12_parquet_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -843,14 +843,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase13_csv_parquet_match_manuel.xlsx</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -858,14 +858,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase14_csv_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -873,14 +873,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase15_parquet_parquet_match_likeobject.xlsx</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -888,14 +888,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase16_parquet_parquet_mismatch_likeobject.xlsx</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -903,14 +903,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase17_dbtable_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -918,14 +918,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase18_parquet_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -933,14 +933,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase19_oracle_mysql_match_manual.xlsx</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -948,14 +948,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase20_oracle_bigquery_match_manual.xlsx</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,14 +963,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase21_mysql_csv_match.xlsx</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -978,14 +978,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase22_bigquery_mysql_match.xlsx</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -993,14 +993,14 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase23_parquet_snowflake_mismatch.xlsx</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,14 +1008,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase24_postgres_csv_counting.xlsx</v>
+        <v>/app/test/testcases/testcase24_snowflake_snowflake_etljob.xlsx</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,14 +1023,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase25_oracle_oracle_etljob.xlsx</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,14 +1038,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="4" t="str">
         <f>_xlfn.CONCAT("/app/test/testcases/",B27,".xlsx")</f>
         <v>/app/test/testcases/testcase26_names_fullname_etljob.xlsx</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,14 +1053,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>_xlfn.CONCAT("/app/test/testcases/",B28,".xlsx")</f>
         <v>/app/test/testcases/testcase27_csv_csv_bigdata_match.xlsx</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1068,14 +1068,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>_xlfn.CONCAT("/app/test/testcases/",B29,".xlsx")</f>
         <v>/app/test/testcases/testcase28_manual_sql_notifications.xlsx</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1083,14 +1083,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" s="4" t="str">
         <f>_xlfn.CONCAT("/app/test/testcases/",B30,".xlsx")</f>
         <v>/app/test/testcases/testcase29_manual_sql_fullname.xlsx</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1098,14 +1098,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" s="4" t="str">
         <f>_xlfn.CONCAT("/app/test/testcases/",B31,".xlsx")</f>
         <v>/app/test/testcases/testcase30_csv_csv_3mill50cols_content.xlsx</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D928F2E-C7E5-4C52-9032-21A6B7D16C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003E3D57-1131-47D7-BFF9-6ED6F3250C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>testcase18_parquet_dbtable_match_likeobject</t>
   </si>
   <si>
-    <t>/app/test/results/</t>
-  </si>
-  <si>
     <t>testcase22_bigquery_mysql_match</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>multiple</t>
+  </si>
+  <si>
+    <t>test\\results\\</t>
   </si>
 </sst>
 </file>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +580,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +655,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,11 +666,11 @@
         <v>12</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f t="shared" ref="C2:C26" si="0">_xlfn.CONCAT("/app/test/testcases/",B2,".xlsx")</f>
-        <v>/app/test/testcases/testcase1_parquet_parquet_mismatch.xlsx</v>
+        <f>_xlfn.CONCAT("test\\testcases\\",B2,".xlsx")</f>
+        <v>test\\testcases\\testcase1_parquet_parquet_mismatch.xlsx</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,11 +681,11 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase2_parquet_parquet_match.xlsx</v>
+        <f t="shared" ref="C3:C31" si="0">_xlfn.CONCAT("test\\testcases\\",B3,".xlsx")</f>
+        <v>test\\testcases\\testcase2_parquet_parquet_match.xlsx</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -697,10 +697,10 @@
       </c>
       <c r="C4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase3_csv_csv_match.xlsx</v>
+        <v>test\\testcases\\testcase3_csv_csv_match.xlsx</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,10 +712,10 @@
       </c>
       <c r="C5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase4_csv_csv_mismatch.xlsx</v>
+        <v>test\\testcases\\testcase4_csv_csv_mismatch.xlsx</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -727,10 +727,10 @@
       </c>
       <c r="C6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase5_csv_parquet_match.xlsx</v>
+        <v>test\\testcases\\testcase5_csv_parquet_match.xlsx</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,10 +742,10 @@
       </c>
       <c r="C7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase6_csv_parquet_mismatch.xlsx</v>
+        <v>test\\testcases\\testcase6_csv_parquet_mismatch.xlsx</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,10 +757,10 @@
       </c>
       <c r="C8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase7_json_json_mismatch.xlsx</v>
+        <v>test\\testcases\\testcase7_json_json_mismatch.xlsx</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -772,10 +772,10 @@
       </c>
       <c r="C9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase8_json_json_match.xlsx</v>
+        <v>test\\testcases\\testcase8_json_json_match.xlsx</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,10 +787,10 @@
       </c>
       <c r="C10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase9_json_parquet_match.xlsx</v>
+        <v>test\\testcases\\testcase9_json_parquet_match.xlsx</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -802,10 +802,10 @@
       </c>
       <c r="C11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase10_json_parquet_mismatch.xlsx</v>
+        <v>test\\testcases\\testcase10_json_parquet_mismatch.xlsx</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -817,10 +817,10 @@
       </c>
       <c r="C12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase11_parquet_parquet_match_manual.xlsx</v>
+        <v>test\\testcases\\testcase11_parquet_parquet_match_manual.xlsx</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -832,10 +832,10 @@
       </c>
       <c r="C13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase12_parquet_parquet_mismatch_manual.xlsx</v>
+        <v>test\\testcases\\testcase12_parquet_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -847,10 +847,10 @@
       </c>
       <c r="C14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase13_csv_parquet_match_manuel.xlsx</v>
+        <v>test\\testcases\\testcase13_csv_parquet_match_manuel.xlsx</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,10 +862,10 @@
       </c>
       <c r="C15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase14_csv_parquet_mismatch_manual.xlsx</v>
+        <v>test\\testcases\\testcase14_csv_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,10 +877,10 @@
       </c>
       <c r="C16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase15_parquet_parquet_match_likeobject.xlsx</v>
+        <v>test\\testcases\\testcase15_parquet_parquet_match_likeobject.xlsx</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
       </c>
       <c r="C17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase16_parquet_parquet_mismatch_likeobject.xlsx</v>
+        <v>test\\testcases\\testcase16_parquet_parquet_mismatch_likeobject.xlsx</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -907,10 +907,10 @@
       </c>
       <c r="C18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase17_dbtable_dbtable_match_likeobject.xlsx</v>
+        <v>test\\testcases\\testcase17_dbtable_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -922,10 +922,10 @@
       </c>
       <c r="C19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase18_parquet_dbtable_match_likeobject.xlsx</v>
+        <v>test\\testcases\\testcase18_parquet_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -933,14 +933,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase19_oracle_mysql_match_manual.xlsx</v>
+        <v>test\\testcases\\testcase19_oracle_mysql_match_manual.xlsx</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -948,14 +948,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase20_oracle_bigquery_match_manual.xlsx</v>
+        <v>test\\testcases\\testcase20_oracle_bigquery_match_manual.xlsx</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,14 +963,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase21_mysql_csv_match.xlsx</v>
+        <v>test\\testcases\\testcase21_mysql_csv_match.xlsx</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -978,14 +978,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase22_bigquery_mysql_match.xlsx</v>
+        <v>test\\testcases\\testcase22_bigquery_mysql_match.xlsx</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -993,14 +993,14 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase23_parquet_snowflake_mismatch.xlsx</v>
+        <v>test\\testcases\\testcase23_parquet_snowflake_mismatch.xlsx</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,14 +1008,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase24_snowflake_snowflake_etljob.xlsx</v>
+        <v>test\\testcases\\testcase24_snowflake_snowflake_etljob.xlsx</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,14 +1023,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase25_oracle_oracle_etljob.xlsx</v>
+        <v>test\\testcases\\testcase25_oracle_oracle_etljob.xlsx</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,14 +1038,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f>_xlfn.CONCAT("/app/test/testcases/",B27,".xlsx")</f>
-        <v>/app/test/testcases/testcase26_names_fullname_etljob.xlsx</v>
+        <f t="shared" si="0"/>
+        <v>test\\testcases\\testcase26_names_fullname_etljob.xlsx</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,14 +1053,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="4" t="str">
-        <f>_xlfn.CONCAT("/app/test/testcases/",B28,".xlsx")</f>
-        <v>/app/test/testcases/testcase27_csv_csv_bigdata_match.xlsx</v>
+        <f t="shared" si="0"/>
+        <v>test\\testcases\\testcase27_csv_csv_bigdata_match.xlsx</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1068,14 +1068,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="4" t="str">
-        <f>_xlfn.CONCAT("/app/test/testcases/",B29,".xlsx")</f>
-        <v>/app/test/testcases/testcase28_manual_sql_notifications.xlsx</v>
+        <f t="shared" si="0"/>
+        <v>test\\testcases\\testcase28_manual_sql_notifications.xlsx</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1083,14 +1083,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="4" t="str">
-        <f>_xlfn.CONCAT("/app/test/testcases/",B30,".xlsx")</f>
-        <v>/app/test/testcases/testcase29_manual_sql_fullname.xlsx</v>
+        <f t="shared" si="0"/>
+        <v>test\\testcases\\testcase29_manual_sql_fullname.xlsx</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1098,14 +1098,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="4" t="str">
-        <f>_xlfn.CONCAT("/app/test/testcases/",B31,".xlsx")</f>
-        <v>/app/test/testcases/testcase30_csv_csv_3mill50cols_content.xlsx</v>
+        <f t="shared" si="0"/>
+        <v>test\\testcases\\testcase30_csv_csv_3mill50cols_content.xlsx</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1153,8 +1153,5 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C27 C22" unlockedFormula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003E3D57-1131-47D7-BFF9-6ED6F3250C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9893AD-373F-4F1E-A875-A7D9016C0102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Sno.</t>
   </si>
@@ -72,72 +72,6 @@
     <t>protocol_version</t>
   </si>
   <si>
-    <t>testcase2_parquet_parquet_match</t>
-  </si>
-  <si>
-    <t>testcase1_parquet_parquet_mismatch</t>
-  </si>
-  <si>
-    <t>testcase3_csv_csv_match</t>
-  </si>
-  <si>
-    <t>testcase4_csv_csv_mismatch</t>
-  </si>
-  <si>
-    <t>testcase5_csv_parquet_match</t>
-  </si>
-  <si>
-    <t>testcase6_csv_parquet_mismatch</t>
-  </si>
-  <si>
-    <t>testcase7_json_json_mismatch</t>
-  </si>
-  <si>
-    <t>testcase8_json_json_match</t>
-  </si>
-  <si>
-    <t>testcase10_json_parquet_mismatch</t>
-  </si>
-  <si>
-    <t>testcase9_json_parquet_match</t>
-  </si>
-  <si>
-    <t>testcase11_parquet_parquet_match_manual</t>
-  </si>
-  <si>
-    <t>testcase12_parquet_parquet_mismatch_manual</t>
-  </si>
-  <si>
-    <t>testcase13_csv_parquet_match_manuel</t>
-  </si>
-  <si>
-    <t>testcase14_csv_parquet_mismatch_manual</t>
-  </si>
-  <si>
-    <t>testcase15_parquet_parquet_match_likeobject</t>
-  </si>
-  <si>
-    <t>testcase16_parquet_parquet_mismatch_likeobject</t>
-  </si>
-  <si>
-    <t>testcase17_dbtable_dbtable_match_likeobject</t>
-  </si>
-  <si>
-    <t>testcase18_parquet_dbtable_match_likeobject</t>
-  </si>
-  <si>
-    <t>testcase22_bigquery_mysql_match</t>
-  </si>
-  <si>
-    <t>testcase19_oracle_mysql_match_manual</t>
-  </si>
-  <si>
-    <t>testcase20_oracle_bigquery_match_manual</t>
-  </si>
-  <si>
-    <t>testcase23_parquet_snowflake_mismatch</t>
-  </si>
-  <si>
     <t>testcase25_oracle_oracle_etljob</t>
   </si>
   <si>
@@ -153,9 +87,6 @@
     <t>testcase27_csv_csv_bigdata_match</t>
   </si>
   <si>
-    <t>testcase21_mysql_csv_match</t>
-  </si>
-  <si>
     <t>testcase26_names_fullname_etljob</t>
   </si>
   <si>
@@ -178,6 +109,9 @@
   </si>
   <si>
     <t>test\\results\\</t>
+  </si>
+  <si>
+    <t>testcase23_snowflake_snowflake_match</t>
   </si>
 </sst>
 </file>
@@ -563,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -580,7 +514,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -630,10 +564,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,22 +589,22 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f t="shared" ref="C2:C9" si="0">_xlfn.CONCAT("test\\testcases\\",B2,".xlsx")</f>
+        <v>test\\testcases\\testcase23_snowflake_snowflake_match.xlsx</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <f>_xlfn.CONCAT("test\\testcases\\",B2,".xlsx")</f>
-        <v>test\\testcases\\testcase1_parquet_parquet_mismatch.xlsx</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,14 +612,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f t="shared" ref="C3:C31" si="0">_xlfn.CONCAT("test\\testcases\\",B3,".xlsx")</f>
-        <v>test\\testcases\\testcase2_parquet_parquet_match.xlsx</v>
+        <f t="shared" si="0"/>
+        <v>test\\testcases\\testcase24_snowflake_snowflake_etljob.xlsx</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -693,14 +627,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase3_csv_csv_match.xlsx</v>
+        <v>test\\testcases\\testcase25_oracle_oracle_etljob.xlsx</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -708,14 +642,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase4_csv_csv_mismatch.xlsx</v>
+        <v>test\\testcases\\testcase26_names_fullname_etljob.xlsx</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -727,10 +661,10 @@
       </c>
       <c r="C6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase5_csv_parquet_match.xlsx</v>
+        <v>test\\testcases\\testcase27_csv_csv_bigdata_match.xlsx</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -738,14 +672,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase6_csv_parquet_mismatch.xlsx</v>
+        <v>test\\testcases\\testcase28_manual_sql_notifications.xlsx</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,14 +687,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase7_json_json_mismatch.xlsx</v>
+        <v>test\\testcases\\testcase29_manual_sql_fullname.xlsx</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,386 +702,56 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase8_json_json_match.xlsx</v>
+        <v>test\\testcases\\testcase30_csv_csv_3mill50cols_content.xlsx</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase9_json_parquet_match.xlsx</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase10_json_parquet_mismatch.xlsx</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase11_parquet_parquet_match_manual.xlsx</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase12_parquet_parquet_mismatch_manual.xlsx</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase13_csv_parquet_match_manuel.xlsx</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase14_csv_parquet_mismatch_manual.xlsx</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase15_parquet_parquet_match_likeobject.xlsx</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase16_parquet_parquet_mismatch_likeobject.xlsx</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase17_dbtable_dbtable_match_likeobject.xlsx</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase18_parquet_dbtable_match_likeobject.xlsx</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase19_oracle_mysql_match_manual.xlsx</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase20_oracle_bigquery_match_manual.xlsx</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase21_mysql_csv_match.xlsx</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase22_bigquery_mysql_match.xlsx</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase23_parquet_snowflake_mismatch.xlsx</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase24_snowflake_snowflake_etljob.xlsx</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase25_oracle_oracle_etljob.xlsx</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase26_names_fullname_etljob.xlsx</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase27_csv_csv_bigdata_match.xlsx</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase28_manual_sql_notifications.xlsx</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase29_manual_sql_fullname.xlsx</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase30_csv_csv_3mill50cols_content.xlsx</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="6"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9893AD-373F-4F1E-A875-A7D9016C0102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2178DA7F-0DB4-4B8E-8D22-46E551003E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,7 +567,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
         <v>test\\testcases\\testcase23_snowflake_snowflake_match.xlsx</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>test\\testcases\\testcase24_snowflake_snowflake_etljob.xlsx</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2178DA7F-0DB4-4B8E-8D22-46E551003E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B23A4A7-5505-4647-B8D7-3CE2A39C3754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,10 +108,10 @@
     <t>multiple</t>
   </si>
   <si>
-    <t>test\\results\\</t>
-  </si>
-  <si>
     <t>testcase23_snowflake_snowflake_match</t>
+  </si>
+  <si>
+    <t>test\results\</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -567,7 +567,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,11 +597,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f t="shared" ref="C2:C9" si="0">_xlfn.CONCAT("test\\testcases\\",B2,".xlsx")</f>
-        <v>test\\testcases\\testcase23_snowflake_snowflake_match.xlsx</v>
+        <f>_xlfn.CONCAT("test\testcases\",B2,".xlsx")</f>
+        <v>test\testcases\testcase23_snowflake_snowflake_match.xlsx</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>13</v>
@@ -615,8 +615,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase24_snowflake_snowflake_etljob.xlsx</v>
+        <f t="shared" ref="C3:C9" si="0">_xlfn.CONCAT("test\testcases\",B3,".xlsx")</f>
+        <v>test\testcases\testcase24_snowflake_snowflake_etljob.xlsx</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>12</v>
@@ -631,7 +631,7 @@
       </c>
       <c r="C4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase25_oracle_oracle_etljob.xlsx</v>
+        <v>test\testcases\testcase25_oracle_oracle_etljob.xlsx</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>12</v>
@@ -646,7 +646,7 @@
       </c>
       <c r="C5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase26_names_fullname_etljob.xlsx</v>
+        <v>test\testcases\testcase26_names_fullname_etljob.xlsx</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>12</v>
@@ -661,7 +661,7 @@
       </c>
       <c r="C6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase27_csv_csv_bigdata_match.xlsx</v>
+        <v>test\testcases\testcase27_csv_csv_bigdata_match.xlsx</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>12</v>
@@ -676,7 +676,7 @@
       </c>
       <c r="C7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase28_manual_sql_notifications.xlsx</v>
+        <v>test\testcases\testcase28_manual_sql_notifications.xlsx</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>13</v>
@@ -691,7 +691,7 @@
       </c>
       <c r="C8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase29_manual_sql_fullname.xlsx</v>
+        <v>test\testcases\testcase29_manual_sql_fullname.xlsx</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>13</v>
@@ -706,7 +706,7 @@
       </c>
       <c r="C9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>test\\testcases\\testcase30_csv_csv_3mill50cols_content.xlsx</v>
+        <v>test\testcases\testcase30_csv_csv_3mill50cols_content.xlsx</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>12</v>

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D928F2E-C7E5-4C52-9032-21A6B7D16C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7281F80-D5DE-4119-B5CB-11B7BEAA2144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1060,7 @@
         <v>/app/test/testcases/testcase27_csv_csv_bigdata_match.xlsx</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
         <v>/app/test/testcases/testcase28_manual_sql_notifications.xlsx</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1090,7 +1090,7 @@
         <v>/app/test/testcases/testcase29_manual_sql_fullname.xlsx</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D28" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B23A4A7-5505-4647-B8D7-3CE2A39C3754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F239FD-74B9-48B1-B3B4-AEE5F1F4F8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="1" r:id="rId1"/>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F239FD-74B9-48B1-B3B4-AEE5F1F4F8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B0A16F-45E4-46FD-9216-C4478BB6BFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="1" r:id="rId1"/>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +619,7 @@
         <v>test\testcases\testcase24_snowflake_snowflake_etljob.xlsx</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\QE_ATF\test\testprotocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Snowflake\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B0A16F-45E4-46FD-9216-C4478BB6BFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF53B758-6C8F-4FC3-A0EA-DF6348DFC73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -679,7 +679,7 @@
         <v>test\testcases\testcase28_manual_sql_notifications.xlsx</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Snowflake\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF53B758-6C8F-4FC3-A0EA-DF6348DFC73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4EB24A-DE58-4B3B-8C84-49241690A879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Sno.</t>
   </si>
@@ -72,9 +72,6 @@
     <t>protocol_version</t>
   </si>
   <si>
-    <t>testcase25_oracle_oracle_etljob</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>testcase27_csv_csv_bigdata_match</t>
   </si>
   <si>
-    <t>testcase26_names_fullname_etljob</t>
-  </si>
-  <si>
     <t>testcase28_manual_sql_notifications</t>
   </si>
   <si>
@@ -111,7 +105,7 @@
     <t>testcase23_snowflake_snowflake_match</t>
   </si>
   <si>
-    <t>test\results\</t>
+    <t>test/results/</t>
   </si>
 </sst>
 </file>
@@ -498,7 +492,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -522,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -530,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -564,10 +558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +583,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -597,14 +591,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>_xlfn.CONCAT("test\testcases\",B2,".xlsx")</f>
-        <v>test\testcases\testcase23_snowflake_snowflake_match.xlsx</v>
+        <f>_xlfn.CONCAT("test/testcases/",B2,".xlsx")</f>
+        <v>test/testcases/testcase23_snowflake_snowflake_match.xlsx</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -612,56 +606,56 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f t="shared" ref="C3:C9" si="0">_xlfn.CONCAT("test\testcases\",B3,".xlsx")</f>
-        <v>test\testcases\testcase24_snowflake_snowflake_etljob.xlsx</v>
+        <f>_xlfn.CONCAT("test/testcases/",B3,".xlsx")</f>
+        <v>test/testcases/testcase24_snowflake_snowflake_etljob.xlsx</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f>_xlfn.CONCAT("test/testcases/",B4,".xlsx")</f>
+        <v>test/testcases/testcase27_csv_csv_bigdata_match.xlsx</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\testcases\testcase25_oracle_oracle_etljob.xlsx</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\testcases\testcase26_names_fullname_etljob.xlsx</v>
+        <f>_xlfn.CONCAT("test/testcases/",B5,".xlsx")</f>
+        <v>test/testcases/testcase28_manual_sql_notifications.xlsx</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\testcases\testcase27_csv_csv_bigdata_match.xlsx</v>
+        <f>_xlfn.CONCAT("test/testcases/",B6,".xlsx")</f>
+        <v>test/testcases/testcase29_manual_sql_fullname.xlsx</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>12</v>
@@ -669,48 +663,30 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\testcases\testcase28_manual_sql_notifications.xlsx</v>
+        <f>_xlfn.CONCAT("test/testcases/",B7,".xlsx")</f>
+        <v>test/testcases/testcase30_csv_csv_3mill50cols_content.xlsx</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\testcases\testcase29_manual_sql_fullname.xlsx</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test\testcases\testcase30_csv_csv_3mill50cols_content.xlsx</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -736,22 +712,10 @@
       <c r="C13" s="4"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>

--- a/test/testprotocol/testprotocol.xlsx
+++ b/test/testprotocol/testprotocol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Snowflake\QE_ATF\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4EB24A-DE58-4B3B-8C84-49241690A879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B31E39E-50F6-44C5-85FB-2229C3295060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +594,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>_xlfn.CONCAT("test/testcases/",B2,".xlsx")</f>
+        <f t="shared" ref="C2:C7" si="0">_xlfn.CONCAT("test/testcases/",B2,".xlsx")</f>
         <v>test/testcases/testcase23_snowflake_snowflake_match.xlsx</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -609,7 +609,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f>_xlfn.CONCAT("test/testcases/",B3,".xlsx")</f>
+        <f t="shared" si="0"/>
         <v>test/testcases/testcase24_snowflake_snowflake_etljob.xlsx</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -624,7 +624,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f>_xlfn.CONCAT("test/testcases/",B4,".xlsx")</f>
+        <f t="shared" si="0"/>
         <v>test/testcases/testcase27_csv_csv_bigdata_match.xlsx</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -639,11 +639,11 @@
         <v>15</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f>_xlfn.CONCAT("test/testcases/",B5,".xlsx")</f>
+        <f t="shared" si="0"/>
         <v>test/testcases/testcase28_manual_sql_notifications.xlsx</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>_xlfn.CONCAT("test/testcases/",B6,".xlsx")</f>
+        <f t="shared" si="0"/>
         <v>test/testcases/testcase29_manual_sql_fullname.xlsx</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -669,7 +669,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f>_xlfn.CONCAT("test/testcases/",B7,".xlsx")</f>
+        <f t="shared" si="0"/>
         <v>test/testcases/testcase30_csv_csv_3mill50cols_content.xlsx</v>
       </c>
       <c r="D7" s="6" t="s">
